--- a/Attendance Roster_Splunk Basic_October 16-17_.xlsx
+++ b/Attendance Roster_Splunk Basic_October 16-17_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\CISCO_SPLK_16_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7BDC7C-0E70-4140-8BCC-B8333C45736F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951C2A0-6D7D-4701-8373-FDC34BF5DCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>Start Date</t>
   </si>
@@ -191,13 +191,19 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>25MMS3001_U14</t>
+  </si>
+  <si>
+    <t>25MMS3001_U15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +245,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -617,12 +635,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -634,9 +646,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,10 +954,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1180,7 +1200,7 @@
   <dimension ref="B5:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,7 +1212,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1205,223 +1225,232 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="31" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
+    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="29" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" location="/" display="https://cloud.cdp.rpsconsulting.in/console/ - /" xr:uid="{310FFD20-3796-4B0A-A8FB-29A6B991915D}"/>
   </hyperlinks>

--- a/Attendance Roster_Splunk Basic_October 16-17_.xlsx
+++ b/Attendance Roster_Splunk Basic_October 16-17_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\CISCO_SPLK_16_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951C2A0-6D7D-4701-8373-FDC34BF5DCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262258F4-051D-4416-9D05-D9BD0AD6FC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>Start Date</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>25MMS3001_U15</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -649,14 +652,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -941,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,14 +953,14 @@
     <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1041,7 +1044,9 @@
       <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,7 +1056,9 @@
       <c r="B13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1061,7 +1068,9 @@
       <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,7 +1080,9 @@
       <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1101,7 +1112,9 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,7 +1124,9 @@
       <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1131,7 +1146,9 @@
       <c r="B21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,7 +1158,9 @@
       <c r="B22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1151,7 +1170,9 @@
       <c r="B23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1171,7 +1192,9 @@
       <c r="B25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1181,7 +1204,9 @@
       <c r="B26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="D26" s="17"/>
     </row>
   </sheetData>
@@ -1199,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268333C2-45BB-4243-809C-915075379F4B}">
   <dimension ref="B5:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,7 +1452,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="26"/>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="26" t="s">
@@ -1442,7 +1467,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="26"/>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F23" s="26" t="s">

--- a/Attendance Roster_Splunk Basic_October 16-17_.xlsx
+++ b/Attendance Roster_Splunk Basic_October 16-17_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\CISCO_SPLK_16_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262258F4-051D-4416-9D05-D9BD0AD6FC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89CC688-0EEE-4B1C-8BDA-A03FE1BB2FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
   <si>
     <t>Start Date</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -945,7 +948,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,7 +1095,9 @@
       <c r="B16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1102,7 +1107,9 @@
       <c r="B17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1136,7 +1143,9 @@
       <c r="B20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1182,7 +1191,9 @@
       <c r="B24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">

--- a/Attendance Roster_Splunk Basic_October 16-17_.xlsx
+++ b/Attendance Roster_Splunk Basic_October 16-17_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\CISCO_SPLK_16_10_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89CC688-0EEE-4B1C-8BDA-A03FE1BB2FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D14E32-F5CD-4A2F-A736-5B8B57F8B774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
   <si>
     <t>Start Date</t>
   </si>
@@ -948,7 +948,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,7 +956,7 @@
     <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1050,7 +1050,9 @@
       <c r="C12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -1062,7 +1064,9 @@
       <c r="C13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
@@ -1074,7 +1078,9 @@
       <c r="C14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
@@ -1086,7 +1092,9 @@
       <c r="C15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
@@ -1098,7 +1106,9 @@
       <c r="C16" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
@@ -1110,7 +1120,9 @@
       <c r="C17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
@@ -1122,7 +1134,9 @@
       <c r="C18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
@@ -1134,7 +1148,9 @@
       <c r="C19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
@@ -1146,7 +1162,9 @@
       <c r="C20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
@@ -1158,7 +1176,9 @@
       <c r="C21" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -1170,7 +1190,9 @@
       <c r="C22" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
@@ -1182,7 +1204,9 @@
       <c r="C23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
@@ -1194,7 +1218,9 @@
       <c r="C24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
@@ -1206,7 +1232,9 @@
       <c r="C25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
@@ -1218,7 +1246,9 @@
       <c r="C26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
